--- a/restassuredapi/ExcelForData/testData.xlsx
+++ b/restassuredapi/ExcelForData/testData.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\eclipse-workspace\restassured_tryapi\restassuredapi\ExcelForData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="6" r:id="rId1"/>
-    <sheet name="config" sheetId="1" r:id="rId2"/>
-    <sheet name="api" sheetId="2" r:id="rId3"/>
-    <sheet name="address" sheetId="8" r:id="rId4"/>
-    <sheet name="gift" sheetId="9" r:id="rId5"/>
-    <sheet name="buyprocess" sheetId="11" r:id="rId6"/>
-    <sheet name="quickbuy" sheetId="7" r:id="rId7"/>
-    <sheet name="login" sheetId="12" r:id="rId8"/>
-    <sheet name="giftbackup" sheetId="4" r:id="rId9"/>
-    <sheet name="addressbackup" sheetId="5" r:id="rId10"/>
-    <sheet name="phonebackup" sheetId="3" r:id="rId11"/>
+    <sheet name="test" sheetId="13" r:id="rId2"/>
+    <sheet name="config" sheetId="1" r:id="rId3"/>
+    <sheet name="api" sheetId="2" r:id="rId4"/>
+    <sheet name="address" sheetId="8" r:id="rId5"/>
+    <sheet name="gift" sheetId="9" r:id="rId6"/>
+    <sheet name="buyprocess" sheetId="11" r:id="rId7"/>
+    <sheet name="quickbuy" sheetId="7" r:id="rId8"/>
+    <sheet name="login" sheetId="12" r:id="rId9"/>
+    <sheet name="giftbackup" sheetId="4" r:id="rId10"/>
+    <sheet name="addressbackup" sheetId="5" r:id="rId11"/>
+    <sheet name="phonebackup" sheetId="3" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -29,7 +36,108 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+application/json
+application/x-www-form-urlencoded
+multipart/form-data
+text/xml</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+登录接口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+清空购物车接口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+兑换赠品接口</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,13 +187,13 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0">
+    <comment ref="A6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -242,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0">
+    <comment ref="A8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -308,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0">
+    <comment ref="A10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -330,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -352,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -374,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -396,7 +504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -418,7 +526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0">
+    <comment ref="A15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -440,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0">
+    <comment ref="A16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -462,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0">
+    <comment ref="A17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -484,7 +592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0">
+    <comment ref="A18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -506,7 +614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0">
+    <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -528,7 +636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -550,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0">
+    <comment ref="A21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -572,7 +680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0">
+    <comment ref="A22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -594,7 +702,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0">
+    <comment ref="A23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -616,7 +724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0">
+    <comment ref="A24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -643,7 +751,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="295">
   <si>
     <t>config: 放置服务器等相关测试信息
 api：放置接口信息</t>
@@ -708,9 +816,6 @@
     <t>/v2/regist/code</t>
   </si>
   <si>
-    <t>-1</t>
-  </si>
-  <si>
     <t>application/json</t>
   </si>
   <si>
@@ -726,9 +831,6 @@
     <t>/v3/setting/address</t>
   </si>
   <si>
-    <t>ab526d09-681a-4138-a9cf-f1bad79875af</t>
-  </si>
-  <si>
     <t>/v2/setting/address/</t>
   </si>
   <si>
@@ -750,9 +852,6 @@
     <t>/ja/user/v3/od/deal/buy</t>
   </si>
   <si>
-    <t>e540af72-b0bc-47f6-aff2-929d7bd66a33</t>
-  </si>
-  <si>
     <t>/ja/user/v4/discovery/cae/quick/buy/false</t>
   </si>
   <si>
@@ -4616,19 +4715,23 @@
   </si>
   <si>
     <t>14814672775</t>
+  </si>
+  <si>
+    <t>AAAAA</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4665,156 +4768,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4823,13 +4799,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399853511154515"/>
+        <fgColor theme="4" tint="0.39982299264503923"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399822992645039"/>
+        <fgColor theme="4" tint="0.39979247413556324"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4839,194 +4815,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -5034,251 +4824,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5320,61 +4868,17 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5632,1800 +5136,1986 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="145.875" customWidth="1"/>
+    <col min="1" max="1" width="145.875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="327.75" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="327.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="26.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.375" collapsed="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.625" collapsed="1"/>
+    <col min="13" max="13" width="12" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="10.375" style="1"/>
-    <col min="8" max="8" width="11.5" style="1"/>
-    <col min="9" max="9" width="12.625" style="1"/>
-    <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="28" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" style="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9" style="1" collapsed="1"/>
+    <col min="7" max="7" width="10.375" style="1" collapsed="1"/>
+    <col min="8" max="8" width="11.5" style="1" collapsed="1"/>
+    <col min="9" max="9" width="12.625" style="1" collapsed="1"/>
+    <col min="10" max="10" width="11" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9" style="1" collapsed="1"/>
+    <col min="13" max="13" width="28" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="I2" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="F9" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="F11" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="I12" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="I13" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="I14" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="I15" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="I16" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="I17" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="I18" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="I20" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="I21" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="I22" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="I23" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="I24" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="I25" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="I26" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="I27" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="I28" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="I29" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="I30" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I14" r:id="rId1" display="137$46&amp;27@6"/>
+    <hyperlink ref="I14" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
+    <col min="1" max="1" width="14.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="64.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" ht="12" customHeight="1" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C24" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C26" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C27" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C29" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C30" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C31" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C33" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C34" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C35" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C36" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C37" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C38" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C39" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C40" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
+      <c r="B41" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C42" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
+      <c r="B44" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="39.625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
@@ -7435,15 +7125,15 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="57.625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="27.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" style="1" collapsed="1"/>
+    <col min="3" max="3" width="57.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:3">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -7454,7 +7144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -7465,7 +7155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -7476,43 +7166,43 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId3" display="http://release.thy360.com" tooltip="http://release.thy360.com"/>
-    <hyperlink ref="A3" r:id="rId4" display="http://172.16.0.21" tooltip="http://172.16.0.21"/>
+    <hyperlink ref="A2" r:id="rId1" tooltip="http://release.thy360.com"/>
+    <hyperlink ref="A3" r:id="rId2" tooltip="http://172.16.0.21"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="81.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="81.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -7529,1173 +7219,1035 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="10" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" ht="18" customHeight="1" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="10" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B80"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="255.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" ht="15" customHeight="1" spans="1:2">
-      <c r="A49" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="48.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="255.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="9" style="1" collapsed="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="10" width="9" style="1" collapsed="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="48.75" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="9" style="1" collapsed="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="10" width="9" style="1" collapsed="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="102.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="102.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="9" style="1" collapsed="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="10" width="9" style="1" collapsed="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>145</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="70" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="70" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="9" style="1" collapsed="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="10" width="9" style="1" collapsed="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="B5" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="57.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="57.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="9" style="1" collapsed="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="10" width="9" style="1" collapsed="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="26.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="12.625"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/restassuredapi/ExcelForData/testData.xlsx
+++ b/restassuredapi/ExcelForData/testData.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\eclipse-workspace\restassured_tryapi\restassuredapi\ExcelForData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350" activeTab="1"/>
+    <workbookView windowWidth="23895" windowHeight="10350" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="6" r:id="rId1"/>
     <sheet name="test" sheetId="13" r:id="rId2"/>
     <sheet name="config" sheetId="1" r:id="rId3"/>
     <sheet name="api" sheetId="2" r:id="rId4"/>
-    <sheet name="address" sheetId="8" r:id="rId5"/>
-    <sheet name="gift" sheetId="9" r:id="rId6"/>
-    <sheet name="buyprocess" sheetId="11" r:id="rId7"/>
+    <sheet name="buyprocess" sheetId="11" r:id="rId5"/>
+    <sheet name="address" sheetId="8" r:id="rId6"/>
+    <sheet name="gift" sheetId="9" r:id="rId7"/>
     <sheet name="quickbuy" sheetId="7" r:id="rId8"/>
     <sheet name="login" sheetId="12" r:id="rId9"/>
     <sheet name="giftbackup" sheetId="4" r:id="rId10"/>
@@ -36,7 +31,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +132,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +188,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -284,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -350,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -438,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -460,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -482,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment ref="A13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -504,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -526,7 +521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
+    <comment ref="A15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -548,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0">
+    <comment ref="A16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -570,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0">
+    <comment ref="A17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -592,7 +587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0">
+    <comment ref="A18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -614,7 +609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -636,7 +631,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -658,7 +653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0">
+    <comment ref="A21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -680,7 +675,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0">
+    <comment ref="A22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -702,7 +697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0">
+    <comment ref="A23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -724,7 +719,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0">
+    <comment ref="A24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -751,12 +746,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295">
   <si>
     <t>config: 放置服务器等相关测试信息
 api：放置接口信息</t>
   </si>
   <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>contentType</t>
+  </si>
+  <si>
+    <t>CCCCDDD</t>
+  </si>
+  <si>
+    <t>PPPPPP</t>
+  </si>
+  <si>
     <t>host</t>
   </si>
   <si>
@@ -798,15 +808,6 @@
     </r>
   </si>
   <si>
-    <t>api</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>contentType</t>
-  </si>
-  <si>
     <t>appversion</t>
   </si>
   <si>
@@ -816,6 +817,9 @@
     <t>/v2/regist/code</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>application/json</t>
   </si>
   <si>
@@ -901,6 +905,70 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>{"dealId":991824,"odLabelId":"-1","limitFlag":false,"selected":false,"specId":924116,"dealCount":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>允许购买</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"dealId":991824,"odLabelId":"-1","limitFlag":false,"selected":false,"specId":924116,"dealCount":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>库存不足</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"contact":"</t>
     </r>
     <r>
@@ -4094,231 +4162,167 @@
     <t>购买数量不能为负数</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"dealId":991824,"odLabelId":"-1","limitFlag":false,"selected":false,"specId":924116,"dealCount":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+    <t>[{"dealCount":1,"dealId":950619},{"dealCount":1,"dealId":950637}]</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[{"dealCount":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"dealId":950619},{"dealCount":1,"dealId":950637}]</t>
+    </r>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[{"dealCount":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"dealId":950619},{"dealCount":1,"dealId":950637}]</t>
+    </r>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[{"dealCount":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"dealId":950619},{"dealCount":1,"dealId":950637}]</t>
+    </r>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>dealCount</t>
+  </si>
+  <si>
+    <t>dealId</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>994136</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>94141</t>
+    </r>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>允许购买</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"dealId":991824,"odLabelId":"-1","limitFlag":false,"selected":false,"specId":924116,"dealCount":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>库存不足</t>
-  </si>
-  <si>
-    <t>[{"dealCount":1,"dealId":950619},{"dealCount":1,"dealId":950637}]</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[{"dealCount":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"dealId":950619},{"dealCount":1,"dealId":950637}]</t>
-    </r>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[{"dealCount":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"dealId":950619},{"dealCount":1,"dealId":950637}]</t>
-    </r>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[{"dealCount":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"dealId":950619},{"dealCount":1,"dealId":950637}]</t>
-    </r>
-  </si>
-  <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t>dealCount</t>
-  </si>
-  <si>
-    <t>dealId</t>
-  </si>
-  <si>
-    <t>selected</t>
-  </si>
-  <si>
-    <t>994136</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>94141</t>
-    </r>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
   </si>
   <si>
     <t>994141</t>
@@ -4715,23 +4719,19 @@
   </si>
   <si>
     <t>14814672775</t>
-  </si>
-  <si>
-    <t>AAAAA</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4754,14 +4754,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4770,27 +4765,146 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4799,13 +4913,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39982299264503923"/>
+        <fgColor theme="4" tint="0.399822992645039"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39979247413556324"/>
+        <fgColor theme="4" tint="0.399792474135563"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4815,8 +4929,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4824,13 +5124,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4858,27 +5400,65 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5136,44 +5716,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="145.875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="327.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" ht="327.75" customHeight="1" spans="1:1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.75" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1" collapsed="1"/>
@@ -5185,105 +5767,106 @@
     <col min="13" max="13" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.875" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1" collapsed="1"/>
@@ -5301,1821 +5884,1826 @@
     <col min="14" max="16384" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="E4" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="F8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="B9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="F11" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="I11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="I12" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="I13" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="I14" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="I15" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="I16" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="I17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="I18" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3" t="s">
+      <c r="F21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="I21" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="I22" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="E23" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L22" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="I23" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="5" t="s">
+      <c r="F24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="I24" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="E25" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L24" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="I25" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="E26" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L25" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M25" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="I26" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="I27" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="E28" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="7" t="s">
+      <c r="F28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="J28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="I29" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="E30" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="L28" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M28" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="I30" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I14" r:id="rId1"/>
+    <hyperlink ref="I14" r:id="rId1" display="137$46&amp;27@6"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="14.375" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="64.125" style="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" ht="12" customHeight="1" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="39.625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="2" customFormat="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>293</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>294</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>293</v>
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>292</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
@@ -7125,7 +7713,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="27.375" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9" style="1" collapsed="1"/>
@@ -7133,240 +7721,482 @@
     <col min="4" max="16384" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="2" customFormat="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" tooltip="http://release.thy360.com"/>
-    <hyperlink ref="A3" r:id="rId2" tooltip="http://172.16.0.21"/>
+    <hyperlink ref="A2" r:id="rId3" display="http://release.thy360.com" tooltip="http://release.thy360.com"/>
+    <hyperlink ref="A3" r:id="rId4" display="http://172.16.0.21" tooltip="http://172.16.0.21"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="A24" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="81.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9" style="1" collapsed="1"/>
+    <col min="1" max="1" width="81.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="2" customFormat="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:4">
       <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="102.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="255.125" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="29.375" style="1" customWidth="1" collapsed="1"/>
@@ -7377,661 +8207,662 @@
     <col min="12" max="16384" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="48.75" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="29.375" style="1" customWidth="1" collapsed="1"/>
@@ -8042,184 +8873,137 @@
     <col min="12" max="16384" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="102.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="9" style="1" collapsed="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="10" width="9" style="1" collapsed="1"/>
-    <col min="11" max="11" width="12" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9" style="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="70" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="9" style="1" collapsed="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="10" width="9" style="1" collapsed="1"/>
-    <col min="11" max="11" width="12" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9" style="1" collapsed="1"/>
+    <col min="1" max="1" width="70" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>146</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="57.5" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="29.375" style="1" customWidth="1" collapsed="1"/>
@@ -8230,24 +9014,24 @@
     <col min="12" max="16384" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/restassuredapi/ExcelForData/testData.xlsx
+++ b/restassuredapi/ExcelForData/testData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\eclipse-workspace\restassured_tryapi\restassuredapi\ExcelForData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="10350" windowWidth="23895" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" windowHeight="10350" windowWidth="23895"/>
   </bookViews>
   <sheets>
     <sheet name="Note" r:id="rId1" sheetId="6"/>
@@ -39,7 +34,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C1" shapeId="0">
+    <comment authorId="0" ref="C1">
       <text>
         <r>
           <rPr>
@@ -64,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment authorId="0" ref="A2">
       <text>
         <r>
           <rPr>
@@ -86,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment authorId="0" ref="A3">
       <text>
         <r>
           <rPr>
@@ -108,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A4" shapeId="0">
+    <comment authorId="0" ref="A4">
       <text>
         <r>
           <rPr>
@@ -140,7 +135,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A1" shapeId="0">
+    <comment authorId="0" ref="A1">
       <text>
         <r>
           <rPr>
@@ -163,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B1" shapeId="0">
+    <comment authorId="0" ref="B1">
       <text>
         <r>
           <rPr>
@@ -196,7 +191,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D1" shapeId="0">
+    <comment authorId="0" ref="D1">
       <text>
         <r>
           <rPr>
@@ -221,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F1" shapeId="0">
+    <comment authorId="0" ref="F1">
       <text>
         <r>
           <rPr>
@@ -243,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment authorId="0" ref="A2">
       <text>
         <r>
           <rPr>
@@ -265,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment authorId="0" ref="A3">
       <text>
         <r>
           <rPr>
@@ -287,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A4" shapeId="0">
+    <comment authorId="0" ref="A4">
       <text>
         <r>
           <rPr>
@@ -309,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A5" shapeId="0">
+    <comment authorId="0" ref="A5">
       <text>
         <r>
           <rPr>
@@ -331,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A6" shapeId="0">
+    <comment authorId="0" ref="A6">
       <text>
         <r>
           <rPr>
@@ -353,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A7" shapeId="0">
+    <comment authorId="0" ref="A7">
       <text>
         <r>
           <rPr>
@@ -375,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A8" shapeId="0">
+    <comment authorId="0" ref="A8">
       <text>
         <r>
           <rPr>
@@ -397,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A9" shapeId="0">
+    <comment authorId="0" ref="A9">
       <text>
         <r>
           <rPr>
@@ -419,7 +414,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A10" shapeId="0">
+    <comment authorId="0" ref="A10">
       <text>
         <r>
           <rPr>
@@ -441,7 +436,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A11" shapeId="0">
+    <comment authorId="0" ref="A11">
       <text>
         <r>
           <rPr>
@@ -463,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A12" shapeId="0">
+    <comment authorId="0" ref="A12">
       <text>
         <r>
           <rPr>
@@ -485,7 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A13" shapeId="0">
+    <comment authorId="0" ref="A13">
       <text>
         <r>
           <rPr>
@@ -507,7 +502,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A14" shapeId="0">
+    <comment authorId="0" ref="A14">
       <text>
         <r>
           <rPr>
@@ -529,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A15" shapeId="0">
+    <comment authorId="0" ref="A15">
       <text>
         <r>
           <rPr>
@@ -551,7 +546,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A16" shapeId="0">
+    <comment authorId="0" ref="A16">
       <text>
         <r>
           <rPr>
@@ -573,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A17" shapeId="0">
+    <comment authorId="0" ref="A17">
       <text>
         <r>
           <rPr>
@@ -595,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A18" shapeId="0">
+    <comment authorId="0" ref="A18">
       <text>
         <r>
           <rPr>
@@ -617,7 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A19" shapeId="0">
+    <comment authorId="0" ref="A19">
       <text>
         <r>
           <rPr>
@@ -639,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A20" shapeId="0">
+    <comment authorId="0" ref="A20">
       <text>
         <r>
           <rPr>
@@ -661,7 +656,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A21" shapeId="0">
+    <comment authorId="0" ref="A21">
       <text>
         <r>
           <rPr>
@@ -683,7 +678,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A22" shapeId="0">
+    <comment authorId="0" ref="A22">
       <text>
         <r>
           <rPr>
@@ -705,7 +700,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A23" shapeId="0">
+    <comment authorId="0" ref="A23">
       <text>
         <r>
           <rPr>
@@ -727,7 +722,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A24" shapeId="0">
+    <comment authorId="0" ref="A24">
       <text>
         <r>
           <rPr>
@@ -754,7 +749,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="2">
   <si>
     <t>config: 放置服务器等相关测试信息
 api：放置接口信息</t>
@@ -784,6 +779,9 @@
     <t>loginData</t>
   </si>
   <si>
+    <t>initAddress</t>
+  </si>
+  <si>
     <t>http://release.thy360.com</t>
   </si>
   <si>
@@ -793,6 +791,9 @@
     <t>{"phone":"13714672776","code":"1234","introducerCode":""}</t>
   </si>
   <si>
+    <t>{"contact":"初始化","phone":13714672776,"gender":0,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1111A","village":"东角山","city1":"深圳市","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":256}</t>
+  </si>
+  <si>
     <t>http://172.16.0.21</t>
   </si>
   <si>
@@ -816,6 +817,9 @@
     </r>
   </si>
   <si>
+    <t>requestMethod</t>
+  </si>
+  <si>
     <t>appversion</t>
   </si>
   <si>
@@ -825,6 +829,12 @@
     <t>/v2/regist/code</t>
   </si>
   <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>e540af72-b0bc-47f6-aff2-929d7bd66a33</t>
+  </si>
+  <si>
     <t>application/json</t>
   </si>
   <si>
@@ -834,18 +844,47 @@
     <t>/ja/user/v3/od/clear/cart</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>elete</t>
+    </r>
+  </si>
+  <si>
     <t>/ja/user/v3/od/giftdeal/exchange</t>
   </si>
   <si>
+    <t>put</t>
+  </si>
+  <si>
     <t>/v3/setting/address</t>
   </si>
   <si>
     <t>/v2/setting/address/</t>
   </si>
   <si>
+    <t>delete</t>
+  </si>
+  <si>
     <t>/v2/address</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>/ja/user/v3/od/cart/order</t>
   </si>
   <si>
@@ -861,6 +900,26 @@
     <t>/ja/user/v3/od/deal/buy</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ost</t>
+    </r>
+  </si>
+  <si>
     <t>/ja/user/v4/discovery/cae/quick/buy/false</t>
   </si>
   <si>
@@ -903,6 +962,35 @@
     <t>expectValue</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"dealId":991824,"odLabelId":"-1","limitFlag":false,"selected":false,"specId":924116,"dealCount":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
     <t>允许购买</t>
   </si>
   <si>
@@ -4697,114 +4785,23 @@
     <t>14814672775</t>
   </si>
   <si>
-    <t>post</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/json</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/json</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>elete</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ost</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>requestMethod</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"dealId":991824,"odLabelId":"-1","limitFlag":false,"selected":false,"specId":924116,"dealCount":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>contentType</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>6e9d31e8-96b2-4f74-9884-9ea1b386e93d</t>
-  </si>
-  <si>
-    <t>65eef84a-836f-4260-b9e0-b1a672e5f152</t>
-  </si>
-  <si>
-    <t>a2e0fb74-0fa1-44b4-aa9c-d18012d6fdbe</t>
-  </si>
-  <si>
-    <t>69d32cbb-ab9f-4a3c-88c9-ec54cf66e4eb</t>
+    <t>129f876d-ac86-4e5a-b688-d2c991431ee7</t>
+  </si>
+  <si>
+    <t>c5449867-37a1-4643-b339-8340f39a02d3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4828,33 +4825,100 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4862,26 +4926,55 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4890,13 +4983,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39979247413556324"/>
+        <fgColor theme="4" tint="0.399792474135563"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39976195562608724"/>
+        <fgColor theme="4" tint="0.399761955626087"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4906,8 +4999,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4915,13 +5194,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="17" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="15" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="35" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="8" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="8" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="24" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4949,30 +5470,68 @@
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="8" numFmtId="49" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5230,44 +5789,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="145.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="327.75" r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row customHeight="1" ht="327.75" r="1" spans="1:1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="1" width="26.75" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="24.0" collapsed="true"/>
@@ -5279,105 +5840,106 @@
     <col min="13" max="13" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="B6" s="8" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="1" width="23.875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="20.0" collapsed="true"/>
@@ -5395,1769 +5957,1774 @@
     <col min="14" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I12" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I13" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="I14" s="6" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I15" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="L15" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I16" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="M16" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I14"/>
+    <hyperlink display="137$46&amp;27@6" r:id="rId1" ref="I14"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="1" width="14.375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="64.125" collapsed="true"/>
     <col min="3" max="3" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12" r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12" r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="39.625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="11.125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="15.625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row customFormat="1" r="1" s="2" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -7168,7 +7735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row customFormat="1" r="2" s="1" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -7179,7 +7746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row customFormat="1" r="3" s="1" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7190,7 +7757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row customFormat="1" r="4" s="1" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -7202,32 +7769,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="1" width="27.375" collapsed="true"/>
     <col min="2" max="2" style="1" width="9.0" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="1" width="57.625" collapsed="true"/>
-    <col min="4" max="16384" style="1" width="9.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="48.875" collapsed="true"/>
+    <col min="5" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row customFormat="1" r="1" s="2" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -7237,463 +7805,482 @@
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row ht="81" r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row ht="81" r="3" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2" tooltip="http://release.thy360.com"/>
-    <hyperlink r:id="rId2" ref="A3" tooltip="http://172.16.0.21"/>
+    <hyperlink display="http://release.thy360.com" r:id="rId3" ref="A2" tooltip="http://release.thy360.com"/>
+    <hyperlink display="http://172.16.0.21" r:id="rId4" ref="A3" tooltip="http://172.16.0.21"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="rId3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr filterMode="1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C2" sqref="C2:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="1" width="81.75" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="21.125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="8.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="15.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="44.75" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="22.875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="1" width="13.125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="1" width="21.0" collapsed="true"/>
     <col min="7" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row customFormat="1" r="1" s="2" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>298</v>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>302</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>293</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>295</v>
+        <v>305</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>296</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>294</v>
+        <v>305</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>297</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
-        <v>306</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>294</v>
+        <v>305</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F24">
     <filterColumn colId="3">
-      <filters>
-        <filter val="application/json"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="application/json"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
-  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B2:B981" type="list">
       <formula1>"get,post,put,delete,head,connect,options,trace,patch,move,copy,link,unlink,wrapped,extension-mothed"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D1:D1048576" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D$1:D$1048576" type="list">
       <formula1>"application/json,application/x-www-form-urlencoded,multipart/form-data,application/xhtml+xml,application/xml,application/atom+xml,application/pdf,application/msword,application/octet-stream,text/html,text/plain,text/xml,image/gif, image/jpeg, image/png"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="1" width="102.5" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
@@ -7704,43 +8291,46 @@
     <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
-        <v>299</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90"/>
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="1" width="255.125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
@@ -7751,661 +8341,662 @@
     <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="49" spans="1:2" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="3" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="3" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="3" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="3" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="3" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="3" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="3" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="1" width="48.75" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
@@ -8416,69 +9007,70 @@
     <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="1" width="70.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="45.375" collapsed="true"/>
@@ -8489,62 +9081,63 @@
     <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="1" width="57.5" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
@@ -8555,24 +9148,24 @@
     <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/restassuredapi/ExcelForData/testData.xlsx
+++ b/restassuredapi/ExcelForData/testData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="4" windowHeight="10350" windowWidth="23895" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="5" windowHeight="10350" windowWidth="23895" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Note" r:id="rId1" sheetId="6"/>
@@ -18,13 +18,12 @@
     <sheet name="api" r:id="rId4" sheetId="2"/>
     <sheet name="buyprocess" r:id="rId5" sheetId="11"/>
     <sheet name="address" r:id="rId6" sheetId="8"/>
-    <sheet name="gift" r:id="rId7" sheetId="9"/>
-    <sheet name="quickbuy" r:id="rId8" sheetId="7"/>
-    <sheet name="login" r:id="rId9" sheetId="12"/>
-    <sheet name="giftbackup" r:id="rId10" sheetId="4"/>
-    <sheet name="addressbackup" r:id="rId11" sheetId="5"/>
+    <sheet name="Sheet1" r:id="rId7" sheetId="15"/>
+    <sheet name="gift" r:id="rId8" sheetId="9"/>
+    <sheet name="quickbuy" r:id="rId9" sheetId="7"/>
+    <sheet name="login" r:id="rId10" sheetId="12"/>
+    <sheet name="giftbackup" r:id="rId11" sheetId="4"/>
     <sheet name="phonebackup" r:id="rId12" sheetId="3"/>
-    <sheet name="Sheet2" r:id="rId13" sheetId="14"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">api!$A$1:$F$24</definedName>
@@ -46,6 +45,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -54,6 +54,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -71,6 +72,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -79,6 +81,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -93,6 +96,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -101,6 +105,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -115,6 +120,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -123,6 +129,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -147,6 +154,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -155,6 +163,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -170,6 +179,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -178,6 +188,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -203,6 +214,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -211,6 +223,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -228,6 +241,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -236,6 +250,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -250,6 +265,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -258,6 +274,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -272,6 +289,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -280,6 +298,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -294,6 +313,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -302,6 +322,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -316,6 +337,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -324,6 +346,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -338,6 +361,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -346,6 +370,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -360,6 +385,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -368,6 +394,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -382,6 +409,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -390,6 +418,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -404,6 +433,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -412,6 +442,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -426,6 +457,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -434,6 +466,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -448,6 +481,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -456,6 +490,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -470,6 +505,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -478,6 +514,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -492,6 +529,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -500,6 +538,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -514,6 +553,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -522,6 +562,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -536,6 +577,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -544,6 +586,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -558,6 +601,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -566,6 +610,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -580,6 +625,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -588,6 +634,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -602,6 +649,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -610,6 +658,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -624,6 +673,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -632,6 +682,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -646,6 +697,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -654,6 +706,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -668,6 +721,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -676,6 +730,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -690,6 +745,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -698,6 +754,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -712,6 +769,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -720,6 +778,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -734,6 +793,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -742,6 +802,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -754,7 +815,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="271">
   <si>
     <t>config: 放置服务器等相关测试信息
 api：放置接口信息</t>
@@ -807,6 +868,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -816,6 +878,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>21</t>
@@ -851,6 +914,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>d</t>
@@ -860,6 +924,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>elete</t>
@@ -907,6 +972,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>p</t>
@@ -916,6 +982,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ost</t>
@@ -975,6 +1042,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -984,6 +1052,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>*？&amp;%@</t>
@@ -993,6 +1062,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":256}</t>
@@ -1002,15 +1072,6 @@
     <t>手机号码格式错误</t>
   </si>
   <si>
-    <t>请选择楼栋单元</t>
-  </si>
-  <si>
-    <t>门牌号只能由数字和字母组成</t>
-  </si>
-  <si>
-    <t>门牌号最大长度为10</t>
-  </si>
-  <si>
     <t>{"dealId":994141,"selected":true,"dealCount":1}</t>
   </si>
   <si>
@@ -1019,6 +1080,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"dealId":</t>
@@ -1028,6 +1090,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>994136</t>
@@ -1037,6 +1100,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"selected":true,"dealCount":1}</t>
@@ -1051,6 +1115,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"dealId":994141,"selected":true,"dealCount":</t>
@@ -1060,6 +1125,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>30</t>
@@ -1069,6 +1135,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -1083,6 +1150,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"dealId":994141,"selected":true,"dealCount":</t>
@@ -1092,6 +1160,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -1101,6 +1170,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -1115,6 +1185,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"dealId":994141,"selected":true,"dealCount":</t>
@@ -1124,6 +1195,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-1</t>
@@ -1133,6 +1205,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -1153,6 +1226,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>[{"dealCount":</t>
@@ -1162,6 +1236,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -1171,6 +1246,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"dealId":950619},{"dealCount":1,"dealId":950637}]</t>
@@ -1185,6 +1261,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>[{"dealCount":</t>
@@ -1194,6 +1271,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>30</t>
@@ -1203,6 +1281,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"dealId":950619},{"dealCount":1,"dealId":950637}]</t>
@@ -1217,6 +1296,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>[{"dealCount":</t>
@@ -1226,6 +1306,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-1</t>
@@ -1235,6 +1316,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"dealId":950619},{"dealCount":1,"dealId":950637}]</t>
@@ -1267,6 +1349,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>9</t>
@@ -1276,6 +1359,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>94141</t>
@@ -1290,6 +1374,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-</t>
@@ -1299,6 +1384,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -1583,10 +1669,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>联系人只能由中文、字母或数字组成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>联系人字数太多</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1607,6 +1689,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷134</t>
@@ -1616,6 +1699,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1625,6 +1709,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13414672775</t>
@@ -1634,6 +1719,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":256}</t>
@@ -1646,6 +1732,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -1655,6 +1742,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷135</t>
@@ -1664,6 +1752,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1673,6 +1762,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13514672775</t>
@@ -1682,6 +1772,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -1701,6 +1792,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -1713,6 +1805,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -1722,6 +1815,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷136</t>
@@ -1731,6 +1825,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1740,6 +1835,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13614672775</t>
@@ -1749,6 +1845,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -1768,6 +1865,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -1780,6 +1878,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -1789,6 +1888,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷137</t>
@@ -1798,6 +1898,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1807,6 +1908,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13714672775</t>
@@ -1816,6 +1918,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -1835,6 +1938,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -1847,6 +1951,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -1856,6 +1961,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷138</t>
@@ -1865,6 +1971,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1874,6 +1981,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13814672775</t>
@@ -1883,6 +1991,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -1902,6 +2011,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -1914,6 +2024,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -1923,6 +2034,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷139</t>
@@ -1932,6 +2044,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -1941,6 +2054,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13914672775</t>
@@ -1950,6 +2064,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -1969,6 +2084,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -1981,6 +2097,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -1990,6 +2107,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷150</t>
@@ -1999,6 +2117,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -2008,6 +2127,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>15014672775</t>
@@ -2017,6 +2137,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -2036,6 +2157,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -2048,6 +2170,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -2057,6 +2180,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷151</t>
@@ -2066,6 +2190,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -2075,6 +2200,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>15114672775</t>
@@ -2084,6 +2210,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -2103,6 +2230,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -2115,6 +2243,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -2124,6 +2253,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷152</t>
@@ -2133,6 +2263,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -2142,6 +2273,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>15214672775</t>
@@ -2151,6 +2283,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -2170,6 +2303,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -2182,6 +2316,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -2191,6 +2326,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷157</t>
@@ -2200,6 +2336,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -2209,6 +2346,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>15714672775</t>
@@ -2218,6 +2356,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -2237,6 +2376,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -2249,6 +2389,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -2258,6 +2399,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷158</t>
@@ -2267,6 +2409,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -2276,6 +2419,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>15814672775</t>
@@ -2285,6 +2429,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -2304,6 +2449,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>6}</t>
@@ -2316,6 +2462,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -2325,6 +2472,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷159</t>
@@ -2334,6 +2482,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -2343,6 +2492,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>15914672775</t>
@@ -2352,6 +2502,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -2371,6 +2522,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -2383,6 +2535,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -2392,6 +2545,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷182</t>
@@ -2401,6 +2555,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -2410,6 +2565,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>18214672775</t>
@@ -2419,6 +2575,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -2438,6 +2595,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -2450,6 +2608,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -2459,6 +2618,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷183</t>
@@ -2468,6 +2628,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -2477,6 +2638,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>18314672775</t>
@@ -2486,6 +2648,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -2505,6 +2668,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -2517,6 +2681,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -2526,6 +2691,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷184</t>
@@ -2535,6 +2701,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -2544,6 +2711,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>18414672775</t>
@@ -2553,6 +2721,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -2572,6 +2741,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -2584,6 +2754,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -2593,6 +2764,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷187</t>
@@ -2602,6 +2774,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -2611,6 +2784,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>18714672775</t>
@@ -2620,6 +2794,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -2639,6 +2814,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -2651,6 +2827,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -2660,6 +2837,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷188</t>
@@ -2669,6 +2847,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -2678,6 +2857,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>18814672775</t>
@@ -2687,6 +2867,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -2706,6 +2887,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -2718,6 +2900,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -2727,6 +2910,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷147</t>
@@ -2736,6 +2920,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -2745,6 +2930,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>14714672775</t>
@@ -2754,6 +2940,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -2773,6 +2960,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -2785,6 +2973,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -2794,6 +2983,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷178</t>
@@ -2803,6 +2993,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -2812,6 +3003,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>17814672775</t>
@@ -2821,6 +3013,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -2840,6 +3033,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -2852,6 +3046,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -2861,6 +3056,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷130</t>
@@ -2870,6 +3066,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -2879,6 +3076,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13014672775</t>
@@ -2888,6 +3086,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -2907,6 +3106,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -2919,6 +3119,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -2928,6 +3129,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷131</t>
@@ -2937,6 +3139,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -2946,6 +3149,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13114672775</t>
@@ -2955,6 +3159,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -2974,6 +3179,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -2986,6 +3192,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -2995,6 +3202,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷132</t>
@@ -3004,6 +3212,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -3013,6 +3222,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13214672775</t>
@@ -3022,6 +3232,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -3041,6 +3252,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -3053,6 +3265,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -3062,6 +3275,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷155</t>
@@ -3071,6 +3285,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -3080,6 +3295,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>15514672775</t>
@@ -3089,6 +3305,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -3108,6 +3325,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -3120,6 +3338,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -3129,6 +3348,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷156</t>
@@ -3138,6 +3358,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -3147,6 +3368,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>15614672775</t>
@@ -3156,6 +3378,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -3175,6 +3398,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -3187,6 +3411,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -3196,6 +3421,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷185</t>
@@ -3205,6 +3431,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -3214,6 +3441,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>18514672775</t>
@@ -3223,6 +3451,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -3242,6 +3471,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -3254,6 +3484,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -3263,6 +3494,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷186</t>
@@ -3272,6 +3504,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -3281,6 +3514,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>18614672775</t>
@@ -3290,6 +3524,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -3309,6 +3544,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -3321,6 +3557,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -3330,6 +3567,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷145</t>
@@ -3339,6 +3577,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -3348,6 +3587,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>14514672775</t>
@@ -3357,6 +3597,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -3376,6 +3617,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -3388,6 +3630,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -3397,6 +3640,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷175</t>
@@ -3406,6 +3650,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -3415,6 +3660,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>17514672775</t>
@@ -3424,6 +3670,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -3443,6 +3690,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -3455,6 +3703,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -3464,6 +3713,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷176</t>
@@ -3473,6 +3723,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -3482,6 +3733,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>17614672775</t>
@@ -3491,6 +3743,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -3510,6 +3763,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -3522,6 +3776,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -3531,6 +3786,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷133</t>
@@ -3540,6 +3796,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -3549,6 +3806,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13314672775</t>
@@ -3558,6 +3816,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -3577,6 +3836,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -3589,6 +3849,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -3598,6 +3859,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷153</t>
@@ -3607,6 +3869,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -3616,6 +3879,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>15314672775</t>
@@ -3625,6 +3889,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -3644,6 +3909,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -3656,6 +3922,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -3665,6 +3932,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷180</t>
@@ -3674,6 +3942,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -3683,6 +3952,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>18014672775</t>
@@ -3692,6 +3962,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -3711,6 +3982,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -3723,6 +3995,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -3732,6 +4005,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷181</t>
@@ -3741,6 +4015,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -3750,6 +4025,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>18114672775</t>
@@ -3759,6 +4035,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -3778,6 +4055,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -3790,6 +4068,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"</t>
@@ -3799,6 +4078,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大爷189</t>
@@ -3808,6 +4088,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","phone":</t>
@@ -3817,6 +4098,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>18914672775</t>
@@ -3826,6 +4108,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -3845,6 +4128,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -3857,6 +4141,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
@@ -3866,6 +4151,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>12345678910</t>
@@ -3875,6 +4161,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -3894,6 +4181,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -3906,6 +4194,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
@@ -3915,6 +4204,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>12*34</t>
@@ -3924,6 +4214,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -3943,6 +4234,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -3955,6 +4247,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
@@ -3964,6 +4257,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>12+34</t>
@@ -3973,6 +4267,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -3992,6 +4287,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -4004,6 +4300,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
@@ -4013,6 +4310,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>AB@CD</t>
@@ -4022,6 +4320,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -4041,6 +4340,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -4053,6 +4353,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
@@ -4062,6 +4363,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ab.cd</t>
@@ -4071,6 +4373,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -4090,6 +4393,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -4102,6 +4406,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
@@ -4111,6 +4416,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>12.34</t>
@@ -4120,6 +4426,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -4139,6 +4446,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -4151,6 +4459,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
@@ -4160,6 +4469,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>AB CD</t>
@@ -4169,6 +4479,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -4188,6 +4499,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -4200,6 +4512,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
@@ -4209,6 +4522,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>12 34</t>
@@ -4218,6 +4532,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -4237,6 +4552,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -4249,6 +4565,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":</t>
@@ -4258,6 +4575,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"   "</t>
@@ -4267,6 +4585,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -4286,6 +4605,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -4301,6 +4621,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>""</t>
@@ -4310,6 +4631,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -4329,6 +4651,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -4341,6 +4664,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
@@ -4350,6 +4674,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>903a</t>
@@ -4359,6 +4684,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -4378,6 +4704,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -4390,6 +4717,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
@@ -4399,6 +4727,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>903A</t>
@@ -4408,6 +4737,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -4427,6 +4757,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -4439,6 +4770,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
@@ -4448,6 +4780,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>903</t>
@@ -4457,6 +4790,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -4476,6 +4810,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -4488,6 +4823,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
@@ -4497,6 +4833,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>aaAA</t>
@@ -4506,6 +4843,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -4525,6 +4863,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -4537,6 +4876,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
@@ -4546,6 +4886,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ABC</t>
@@ -4555,6 +4896,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -4574,6 +4916,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -4586,6 +4929,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"</t>
@@ -4595,6 +4939,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>abc</t>
@@ -4604,6 +4949,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -4623,6 +4969,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -4635,6 +4982,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":</t>
@@ -4644,6 +4992,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"   "</t>
@@ -4653,6 +5002,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"addressBuildingId":2</t>
@@ -4672,6 +5022,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -4684,6 +5035,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":</t>
@@ -4693,6 +5045,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>""</t>
@@ -4702,6 +5055,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"addressBuildingId":2</t>
@@ -4721,6 +5075,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -4733,6 +5088,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone"</t>
@@ -4742,6 +5098,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -4761,6 +5118,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
@@ -4780,6 +5138,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -4789,6 +5148,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -4808,6 +5168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -4820,6 +5181,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone"</t>
@@ -4829,6 +5191,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -4848,6 +5211,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -4857,6 +5221,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -4876,6 +5241,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -4888,6 +5254,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":</t>
@@ -4897,15 +5264,17 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1371467 776</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1341467277</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -4925,6 +5294,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -4937,6 +5307,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":</t>
@@ -4946,15 +5317,17 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13,14!72?7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>134146727755</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -4974,6 +5347,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -4986,6 +5360,982 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":13414672775,"gender":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"大爷","phone":13414672775,"gender":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>aaaaaaaaaa19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>壹贰叁肆伍陆柒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"   "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"phone":14814672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"phone":14814672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大爷148</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","phone":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14814672775</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大爷146</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","phone":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14614672775</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大爷166</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","phone":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16614672775</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大爷199</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","phone":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19914672775</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大爷198</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","phone":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19814672775</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大爷171</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","phone":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17114672775</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大爷170</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","phone":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17014672775</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大爷173</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","phone":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17314672775</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"contact":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大爷177</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","phone":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17714672775</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":</t>
@@ -4993,8 +6343,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13a14b72z7</t>
@@ -5002,8 +6363,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -5023,1244 +6395,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>137$46&amp;27@6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1341467277</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>134146727755</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:   ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"contact":"大爷","phone":13414672775,"gender":ABC,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":13414672775,"gender":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>aaaaaaaaaa19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>壹贰叁肆伍陆柒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","phone":13414672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"   "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"phone":14814672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>""</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"phone":14814672775,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大爷148</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","phone":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>14814672775</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大爷146</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","phone":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>14614672775</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大爷166</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","phone":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>16614672775</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大爷199</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","phone":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>19914672775</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大爷198</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","phone":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>19814672775</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大爷171</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","phone":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>17114672775</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大爷170</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","phone":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>17014672775</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大爷173</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","phone":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>17314672775</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大爷177</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","phone":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>17714672775</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{"contact":"大爷","phone":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13a14b72z7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -6285,6 +6420,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":13414672775,"gender"</t>
@@ -6294,6 +6430,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -6313,6 +6450,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -6322,6 +6460,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -6341,6 +6480,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -6353,6 +6493,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":13414672775,"gender"</t>
@@ -6362,6 +6503,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -6381,6 +6523,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
@@ -6400,6 +6543,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> ,</t>
@@ -6409,6 +6553,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -6428,6 +6573,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -6440,6 +6586,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":</t>
@@ -6459,6 +6606,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>137$46&amp;27@6</t>
@@ -6478,6 +6626,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -6497,6 +6646,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -6509,6 +6659,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":</t>
@@ -6528,6 +6679,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1371467 776</t>
@@ -6547,6 +6699,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -6566,6 +6719,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -6578,6 +6732,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"contact":"大爷","phone":</t>
@@ -6597,6 +6752,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>13,14!72?7</t>
@@ -6616,6 +6772,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,"gender":1,"regionId":813395,"latitude":22.408965,"longitude":113.826119,"room1":"1123Az","village":"东角山","city1":"深圳","addressNaviId":18039,"building":"自动化测试楼栋C栋（勿删）","addressBuildingId":2</t>
@@ -6635,6 +6792,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>}</t>
@@ -6672,6 +6830,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -6791,14 +6950,49 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>库存不足</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>381fec27-d1d4-470e-9ade-124f05aed1de</t>
+    <r>
+      <t>{"phone":"1371467277</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","code":"1234","introducerCode":""}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"13714672776","code":"1234","introducerCode":""}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0a00c4bd-705c-48b0-9b34-8e7a14938b96</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0e8f678a-0a36-49ae-bd8d-407695820574</t>
   </si>
 </sst>
 </file>
@@ -6806,7 +7000,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6819,6 +7013,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6826,28 +7021,33 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6869,13 +7069,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -7266,6 +7459,47 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="57.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
+    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
+    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7286,13 +7520,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>51</v>
@@ -7300,737 +7534,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C80"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="255.125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
-    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
-    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -8056,21 +7625,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>53</v>
@@ -8078,10 +7647,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>53</v>
@@ -8089,10 +7658,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>53</v>
@@ -8100,10 +7669,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>53</v>
@@ -8111,10 +7680,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>53</v>
@@ -8122,10 +7691,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>53</v>
@@ -8133,10 +7702,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>53</v>
@@ -8144,10 +7713,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>53</v>
@@ -8155,10 +7724,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>53</v>
@@ -8166,10 +7735,10 @@
     </row>
     <row customHeight="1" ht="12" r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>53</v>
@@ -8177,10 +7746,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>53</v>
@@ -8188,10 +7757,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>53</v>
@@ -8199,10 +7768,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>53</v>
@@ -8210,10 +7779,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>53</v>
@@ -8221,10 +7790,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>53</v>
@@ -8232,10 +7801,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>53</v>
@@ -8243,10 +7812,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>53</v>
@@ -8254,10 +7823,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>53</v>
@@ -8265,10 +7834,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>53</v>
@@ -8276,10 +7845,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>53</v>
@@ -8287,10 +7856,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>53</v>
@@ -8298,10 +7867,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>53</v>
@@ -8309,10 +7878,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>53</v>
@@ -8320,10 +7889,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>53</v>
@@ -8331,10 +7900,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>53</v>
@@ -8342,10 +7911,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>53</v>
@@ -8353,10 +7922,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>53</v>
@@ -8364,10 +7933,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>53</v>
@@ -8375,10 +7944,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>53</v>
@@ -8386,10 +7955,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>53</v>
@@ -8397,10 +7966,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>53</v>
@@ -8408,10 +7977,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>53</v>
@@ -8419,10 +7988,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>53</v>
@@ -8430,10 +7999,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>53</v>
@@ -8441,10 +8010,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>53</v>
@@ -8452,10 +8021,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>53</v>
@@ -8463,10 +8032,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>53</v>
@@ -8474,10 +8043,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>53</v>
@@ -8485,10 +8054,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>53</v>
@@ -8496,10 +8065,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>53</v>
@@ -8507,10 +8076,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>53</v>
@@ -8518,10 +8087,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>53</v>
@@ -8529,10 +8098,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>53</v>
@@ -8541,19 +8110,6 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
 </worksheet>
 </file>
 
@@ -8664,8 +8220,8 @@
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
+      <c r="C2" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>13</v>
@@ -8678,8 +8234,8 @@
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
+      <c r="C3" s="10" t="s">
+        <v>266</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>13</v>
@@ -8708,7 +8264,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8750,7 +8306,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>21</v>
@@ -8767,7 +8323,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -8784,7 +8340,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>21</v>
@@ -8801,7 +8357,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
@@ -8818,13 +8374,13 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -8835,7 +8391,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>21</v>
@@ -8850,7 +8406,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>21</v>
@@ -8865,7 +8421,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>21</v>
@@ -8880,7 +8436,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>21</v>
@@ -8894,7 +8450,7 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>21</v>
@@ -8911,7 +8467,7 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>21</v>
@@ -8925,7 +8481,7 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>21</v>
@@ -8940,7 +8496,7 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>21</v>
@@ -8954,7 +8510,7 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>21</v>
@@ -8968,7 +8524,7 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>21</v>
@@ -8982,7 +8538,7 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>21</v>
@@ -8997,7 +8553,7 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>21</v>
@@ -9012,7 +8568,7 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>21</v>
@@ -9027,7 +8583,7 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>21</v>
@@ -9042,7 +8598,7 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>21</v>
@@ -9057,7 +8613,7 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>21</v>
@@ -9072,7 +8628,7 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>21</v>
@@ -9087,7 +8643,7 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>21</v>
@@ -9123,8 +8679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9148,7 +8704,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
@@ -9156,26 +8712,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -9188,8 +8744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A68" ySplit="1"/>
+      <selection activeCell="A10" pane="bottomLeft" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9213,7 +8770,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>53</v>
@@ -9221,7 +8778,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>53</v>
@@ -9229,7 +8786,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>53</v>
@@ -9237,7 +8794,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>53</v>
@@ -9245,7 +8802,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>53</v>
@@ -9253,7 +8810,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>53</v>
@@ -9261,7 +8818,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>53</v>
@@ -9269,7 +8826,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>53</v>
@@ -9277,7 +8834,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>53</v>
@@ -9285,7 +8842,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>53</v>
@@ -9293,7 +8850,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>53</v>
@@ -9301,7 +8858,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>53</v>
@@ -9309,7 +8866,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>53</v>
@@ -9317,7 +8874,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>53</v>
@@ -9325,7 +8882,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>53</v>
@@ -9333,7 +8890,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>53</v>
@@ -9341,7 +8898,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>53</v>
@@ -9349,7 +8906,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>53</v>
@@ -9357,7 +8914,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>53</v>
@@ -9365,7 +8922,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>53</v>
@@ -9373,7 +8930,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>53</v>
@@ -9381,7 +8938,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>53</v>
@@ -9389,7 +8946,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>53</v>
@@ -9397,7 +8954,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>53</v>
@@ -9405,7 +8962,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>53</v>
@@ -9413,7 +8970,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>53</v>
@@ -9421,7 +8978,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>53</v>
@@ -9429,7 +8986,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>53</v>
@@ -9437,7 +8994,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>53</v>
@@ -9445,7 +9002,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>53</v>
@@ -9453,7 +9010,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>53</v>
@@ -9461,7 +9018,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>53</v>
@@ -9469,7 +9026,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>53</v>
@@ -9477,7 +9034,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>53</v>
@@ -9485,7 +9042,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>53</v>
@@ -9493,7 +9050,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>53</v>
@@ -9501,7 +9058,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>53</v>
@@ -9509,7 +9066,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>53</v>
@@ -9517,7 +9074,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>53</v>
@@ -9525,7 +9082,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>53</v>
@@ -9533,7 +9090,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>53</v>
@@ -9541,7 +9098,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>53</v>
@@ -9549,7 +9106,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>53</v>
@@ -9557,18 +9114,18 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -9576,28 +9133,28 @@
         <v>54</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="11" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>53</v>
@@ -9605,7 +9162,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>53</v>
@@ -9613,7 +9170,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>53</v>
@@ -9621,7 +9178,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>53</v>
@@ -9629,7 +9186,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>53</v>
@@ -9637,7 +9194,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>55</v>
@@ -9645,7 +9202,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>55</v>
@@ -9653,7 +9210,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>55</v>
@@ -9661,7 +9218,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>55</v>
@@ -9669,7 +9226,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="11" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>55</v>
@@ -9677,7 +9234,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>55</v>
@@ -9685,7 +9242,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>55</v>
@@ -9693,7 +9250,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>55</v>
@@ -9701,23 +9258,23 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>53</v>
@@ -9725,7 +9282,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>53</v>
@@ -9733,7 +9290,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>53</v>
@@ -9741,7 +9298,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>53</v>
@@ -9749,7 +9306,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>53</v>
@@ -9757,7 +9314,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>53</v>
@@ -9765,82 +9322,82 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -9851,6 +9408,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -9879,7 +9449,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>53</v>
@@ -9887,34 +9457,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -9923,7 +9493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -9952,34 +9522,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -9987,45 +9557,4 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="57.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="29.375" collapsed="true"/>
-    <col min="3" max="5" style="1" width="9.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="10.875" collapsed="true"/>
-    <col min="7" max="10" style="1" width="9.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="12.0" collapsed="true"/>
-    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
-</worksheet>
 </file>